--- a/project report/total.xlsx
+++ b/project report/total.xlsx
@@ -151,7 +151,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OneCare 2.0</t>
+          <t>Administration Tasks</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -161,41 +161,58 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2h 30m</t>
+          <t>2h</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>OpenWorld</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>12h</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>4h 20m</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20h</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9h</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>Resources Tasks</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>28h</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>Total:</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>12h</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>6h 50m</t>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>20h</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>39h</t>
         </is>
       </c>
     </row>
